--- a/Documentation Set/7. RCT.xlsx
+++ b/Documentation Set/7. RCT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taher\OneDrive\Documents\Pace\Sem2\Project I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rushdavahora/Desktop/PACE/Spring 2023/Computer Science Project 1/Project Deliveries/RCT Table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F772A8D-8979-4F36-8D59-9DE5389A5671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6214BDB3-8FB8-B74F-8C9D-98D7D1BD2014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{8F08C0A6-DC85-45EA-ABDD-703ADA1B6F2C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17180" activeTab="4" xr2:uid="{8F08C0A6-DC85-45EA-ABDD-703ADA1B6F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional Decomposition" sheetId="1" r:id="rId1"/>
@@ -2156,7 +2156,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2658,6 +2658,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2670,12 +2679,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2736,6 +2739,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2757,32 +2778,20 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3106,19 +3115,19 @@
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="175.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="175.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="199" t="s">
+    <row r="1" spans="1:2" ht="26" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="200"/>
-    </row>
-    <row r="2" spans="1:2" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="197"/>
+    </row>
+    <row r="2" spans="1:2" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3126,79 +3135,79 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="195" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="200" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="196"/>
-      <c r="B4" s="198"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="195" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="197" t="s">
+    <row r="4" spans="1:2" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="199"/>
+      <c r="B4" s="201"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="198" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="200" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="196"/>
-      <c r="B6" s="198"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="195" t="s">
+    <row r="6" spans="1:2" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="199"/>
+      <c r="B6" s="201"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="197" t="s">
+      <c r="B7" s="200" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="196"/>
-      <c r="B8" s="198"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="195" t="s">
+    <row r="8" spans="1:2" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="199"/>
+      <c r="B8" s="201"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="200" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="196"/>
-      <c r="B10" s="198"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="195" t="s">
+    <row r="10" spans="1:2" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="199"/>
+      <c r="B10" s="201"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="197" t="s">
+      <c r="B11" s="200" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="196"/>
-      <c r="B12" s="198"/>
+    <row r="12" spans="1:2" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="199"/>
+      <c r="B12" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3213,21 +3222,21 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="7" width="12.28515625" style="2" customWidth="1"/>
-    <col min="8" max="14" width="11.42578125" style="2"/>
-    <col min="15" max="15" width="9.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="2" customWidth="1"/>
-    <col min="18" max="19" width="14.28515625" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="50.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="2" customWidth="1"/>
+    <col min="4" max="7" width="12.33203125" style="2" customWidth="1"/>
+    <col min="8" max="14" width="11.5" style="2"/>
+    <col min="15" max="15" width="9.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="2" customWidth="1"/>
+    <col min="18" max="19" width="14.33203125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -3272,7 +3281,7 @@
       <c r="AN1" s="8"/>
       <c r="AO1" s="8"/>
     </row>
-    <row r="2" spans="1:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
@@ -3315,40 +3324,40 @@
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
     </row>
-    <row r="3" spans="1:41" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="201" t="s">
+      <c r="C3" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="201" t="s">
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="201" t="s">
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="210" t="s">
+      <c r="P3" s="203"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="211"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="201" t="s">
+      <c r="S3" s="212"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="202"/>
-      <c r="W3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="204"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
@@ -3368,7 +3377,7 @@
       <c r="AN3" s="8"/>
       <c r="AO3" s="8"/>
     </row>
-    <row r="4" spans="1:41" ht="149.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="150" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="13" t="s">
@@ -3453,8 +3462,8 @@
       <c r="AN4" s="8"/>
       <c r="AO4" s="8"/>
     </row>
-    <row r="5" spans="1:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="204" t="s">
+    <row r="5" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="205" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -3508,8 +3517,8 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
     </row>
-    <row r="6" spans="1:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="204"/>
+    <row r="6" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="205"/>
       <c r="B6" s="34" t="s">
         <v>41</v>
       </c>
@@ -3555,8 +3564,8 @@
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
     </row>
-    <row r="7" spans="1:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="204"/>
+    <row r="7" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="205"/>
       <c r="B7" s="34" t="s">
         <v>42</v>
       </c>
@@ -3602,8 +3611,8 @@
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
     </row>
-    <row r="8" spans="1:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="204"/>
+    <row r="8" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="205"/>
       <c r="B8" s="34" t="s">
         <v>43</v>
       </c>
@@ -3649,8 +3658,8 @@
       <c r="AN8" s="8"/>
       <c r="AO8" s="8"/>
     </row>
-    <row r="9" spans="1:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="204"/>
+    <row r="9" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="205"/>
       <c r="B9" s="37" t="s">
         <v>44</v>
       </c>
@@ -3696,8 +3705,8 @@
       <c r="AN9" s="8"/>
       <c r="AO9" s="8"/>
     </row>
-    <row r="10" spans="1:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="204"/>
+    <row r="10" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="205"/>
       <c r="B10" s="34" t="s">
         <v>45</v>
       </c>
@@ -3743,8 +3752,8 @@
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
     </row>
-    <row r="11" spans="1:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="205"/>
+    <row r="11" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="206"/>
       <c r="B11" s="39" t="s">
         <v>46</v>
       </c>
@@ -3790,8 +3799,8 @@
       <c r="AN11" s="8"/>
       <c r="AO11" s="8"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="213" t="s">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A12" s="214" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="40" t="s">
@@ -3839,8 +3848,8 @@
       <c r="AN12" s="8"/>
       <c r="AO12" s="8"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="214"/>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A13" s="215"/>
       <c r="B13" s="41" t="s">
         <v>49</v>
       </c>
@@ -3886,8 +3895,8 @@
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="214"/>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A14" s="215"/>
       <c r="B14" s="41" t="s">
         <v>50</v>
       </c>
@@ -3935,8 +3944,8 @@
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
     </row>
-    <row r="15" spans="1:41" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="214"/>
+    <row r="15" spans="1:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="215"/>
       <c r="B15" s="43" t="s">
         <v>51</v>
       </c>
@@ -3982,8 +3991,8 @@
       <c r="AN15" s="8"/>
       <c r="AO15" s="8"/>
     </row>
-    <row r="16" spans="1:41" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="214"/>
+    <row r="16" spans="1:41" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="215"/>
       <c r="B16" s="44" t="s">
         <v>52</v>
       </c>
@@ -4029,8 +4038,8 @@
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" s="214"/>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A17" s="215"/>
       <c r="B17" s="41" t="s">
         <v>53</v>
       </c>
@@ -4076,8 +4085,8 @@
       <c r="AN17" s="8"/>
       <c r="AO17" s="8"/>
     </row>
-    <row r="18" spans="1:41" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="214"/>
+    <row r="18" spans="1:41" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="215"/>
       <c r="B18" s="43" t="s">
         <v>54</v>
       </c>
@@ -4123,8 +4132,8 @@
       <c r="AN18" s="8"/>
       <c r="AO18" s="8"/>
     </row>
-    <row r="19" spans="1:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="213"/>
+    <row r="19" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="214"/>
       <c r="B19" s="41" t="s">
         <v>55</v>
       </c>
@@ -4174,8 +4183,8 @@
       <c r="AN19" s="8"/>
       <c r="AO19" s="8"/>
     </row>
-    <row r="20" spans="1:41" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="215"/>
+    <row r="20" spans="1:41" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="216"/>
       <c r="B20" s="45" t="s">
         <v>56</v>
       </c>
@@ -4221,8 +4230,8 @@
       <c r="AN20" s="8"/>
       <c r="AO20" s="8"/>
     </row>
-    <row r="21" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="213" t="s">
+    <row r="21" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="214" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="46" t="s">
@@ -4272,8 +4281,8 @@
       <c r="AN21" s="8"/>
       <c r="AO21" s="8"/>
     </row>
-    <row r="22" spans="1:41" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="214"/>
+    <row r="22" spans="1:41" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="215"/>
       <c r="B22" s="43" t="s">
         <v>59</v>
       </c>
@@ -4323,8 +4332,8 @@
       <c r="AN22" s="8"/>
       <c r="AO22" s="8"/>
     </row>
-    <row r="23" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="214"/>
+    <row r="23" spans="1:41" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="215"/>
       <c r="B23" s="43" t="s">
         <v>60</v>
       </c>
@@ -4372,8 +4381,8 @@
       <c r="AN23" s="8"/>
       <c r="AO23" s="8"/>
     </row>
-    <row r="24" spans="1:41" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="214"/>
+    <row r="24" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="215"/>
       <c r="B24" s="41" t="s">
         <v>61</v>
       </c>
@@ -4419,8 +4428,8 @@
       <c r="AN24" s="8"/>
       <c r="AO24" s="8"/>
     </row>
-    <row r="25" spans="1:41" s="7" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="214"/>
+    <row r="25" spans="1:41" s="7" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="215"/>
       <c r="B25" s="41" t="s">
         <v>62</v>
       </c>
@@ -4452,8 +4461,8 @@
       <c r="Z25" s="33"/>
       <c r="AA25" s="33"/>
     </row>
-    <row r="26" spans="1:41" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="214"/>
+    <row r="26" spans="1:41" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="215"/>
       <c r="B26" s="41" t="s">
         <v>63</v>
       </c>
@@ -4487,8 +4496,8 @@
       <c r="Z26" s="33"/>
       <c r="AA26" s="33"/>
     </row>
-    <row r="27" spans="1:41" s="7" customFormat="1" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="216"/>
+    <row r="27" spans="1:41" s="7" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="217"/>
       <c r="B27" s="45" t="s">
         <v>64</v>
       </c>
@@ -4520,8 +4529,8 @@
       <c r="Z27" s="33"/>
       <c r="AA27" s="33"/>
     </row>
-    <row r="28" spans="1:41" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="217" t="s">
+    <row r="28" spans="1:41" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="218" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="47" t="s">
@@ -4557,8 +4566,8 @@
       <c r="Z28" s="33"/>
       <c r="AA28" s="33"/>
     </row>
-    <row r="29" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="218"/>
+    <row r="29" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="219"/>
       <c r="B29" s="41" t="s">
         <v>67</v>
       </c>
@@ -4592,8 +4601,8 @@
       <c r="Z29" s="33"/>
       <c r="AA29" s="33"/>
     </row>
-    <row r="30" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="218"/>
+    <row r="30" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="219"/>
       <c r="B30" s="48" t="s">
         <v>68</v>
       </c>
@@ -4625,8 +4634,8 @@
       <c r="Z30" s="33"/>
       <c r="AA30" s="33"/>
     </row>
-    <row r="31" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="218"/>
+    <row r="31" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="219"/>
       <c r="B31" s="41" t="s">
         <v>69</v>
       </c>
@@ -4658,8 +4667,8 @@
       <c r="Z31" s="33"/>
       <c r="AA31" s="33"/>
     </row>
-    <row r="32" spans="1:41" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="218"/>
+    <row r="32" spans="1:41" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="219"/>
       <c r="B32" s="43" t="s">
         <v>70</v>
       </c>
@@ -4691,8 +4700,8 @@
       <c r="Z32" s="33"/>
       <c r="AA32" s="33"/>
     </row>
-    <row r="33" spans="1:27" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="218"/>
+    <row r="33" spans="1:27" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="219"/>
       <c r="B33" s="41" t="s">
         <v>71</v>
       </c>
@@ -4724,8 +4733,8 @@
       <c r="Z33" s="33"/>
       <c r="AA33" s="33"/>
     </row>
-    <row r="34" spans="1:27" s="7" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="219"/>
+    <row r="34" spans="1:27" s="7" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="220"/>
       <c r="B34" s="45" t="s">
         <v>72</v>
       </c>
@@ -4757,8 +4766,8 @@
       <c r="Z34" s="33"/>
       <c r="AA34" s="33"/>
     </row>
-    <row r="35" spans="1:27" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="213" t="s">
+    <row r="35" spans="1:27" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="214" t="s">
         <v>73</v>
       </c>
       <c r="B35" s="47" t="s">
@@ -4792,8 +4801,8 @@
       <c r="Z35" s="33"/>
       <c r="AA35" s="33"/>
     </row>
-    <row r="36" spans="1:27" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="213"/>
+    <row r="36" spans="1:27" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="214"/>
       <c r="B36" s="41" t="s">
         <v>75</v>
       </c>
@@ -4825,8 +4834,8 @@
       <c r="Z36" s="33"/>
       <c r="AA36" s="33"/>
     </row>
-    <row r="37" spans="1:27" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="213"/>
+    <row r="37" spans="1:27" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="214"/>
       <c r="B37" s="41" t="s">
         <v>76</v>
       </c>
@@ -4854,8 +4863,8 @@
       <c r="V37" s="52"/>
       <c r="W37" s="53"/>
     </row>
-    <row r="38" spans="1:27" s="7" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="213"/>
+    <row r="38" spans="1:27" s="7" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="214"/>
       <c r="B38" s="43" t="s">
         <v>77</v>
       </c>
@@ -4883,8 +4892,8 @@
       <c r="V38" s="52"/>
       <c r="W38" s="53"/>
     </row>
-    <row r="39" spans="1:27" s="7" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="213"/>
+    <row r="39" spans="1:27" s="7" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="214"/>
       <c r="B39" s="54" t="s">
         <v>78</v>
       </c>
@@ -4912,8 +4921,8 @@
       <c r="V39" s="52"/>
       <c r="W39" s="53"/>
     </row>
-    <row r="40" spans="1:27" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="213"/>
+    <row r="40" spans="1:27" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="214"/>
       <c r="B40" s="41" t="s">
         <v>79</v>
       </c>
@@ -4941,8 +4950,8 @@
       <c r="V40" s="52"/>
       <c r="W40" s="53"/>
     </row>
-    <row r="41" spans="1:27" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="213"/>
+    <row r="41" spans="1:27" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="214"/>
       <c r="B41" s="41" t="s">
         <v>80</v>
       </c>
@@ -4970,8 +4979,8 @@
       <c r="V41" s="52"/>
       <c r="W41" s="53"/>
     </row>
-    <row r="42" spans="1:27" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="215"/>
+    <row r="42" spans="1:27" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="216"/>
       <c r="B42" s="55" t="s">
         <v>81</v>
       </c>
@@ -4999,8 +5008,8 @@
       <c r="V42" s="52"/>
       <c r="W42" s="53"/>
     </row>
-    <row r="43" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="213" t="s">
+    <row r="43" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="214" t="s">
         <v>82</v>
       </c>
       <c r="B43" s="47" t="s">
@@ -5034,8 +5043,8 @@
       <c r="V43" s="52"/>
       <c r="W43" s="53"/>
     </row>
-    <row r="44" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="214"/>
+    <row r="44" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="215"/>
       <c r="B44" s="41" t="s">
         <v>84</v>
       </c>
@@ -5063,8 +5072,8 @@
       <c r="V44" s="52"/>
       <c r="W44" s="53"/>
     </row>
-    <row r="45" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="214"/>
+    <row r="45" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="215"/>
       <c r="B45" s="41" t="s">
         <v>85</v>
       </c>
@@ -5092,8 +5101,8 @@
       <c r="V45" s="52"/>
       <c r="W45" s="53"/>
     </row>
-    <row r="46" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="214"/>
+    <row r="46" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="215"/>
       <c r="B46" s="41" t="s">
         <v>86</v>
       </c>
@@ -5121,8 +5130,8 @@
       <c r="V46" s="52"/>
       <c r="W46" s="53"/>
     </row>
-    <row r="47" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="214"/>
+    <row r="47" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="215"/>
       <c r="B47" s="41" t="s">
         <v>87</v>
       </c>
@@ -5154,8 +5163,8 @@
       <c r="V47" s="52"/>
       <c r="W47" s="53"/>
     </row>
-    <row r="48" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="214"/>
+    <row r="48" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="215"/>
       <c r="B48" s="41" t="s">
         <v>88</v>
       </c>
@@ -5183,8 +5192,8 @@
       <c r="V48" s="52"/>
       <c r="W48" s="53"/>
     </row>
-    <row r="49" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="214"/>
+    <row r="49" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="215"/>
       <c r="B49" s="41" t="s">
         <v>89</v>
       </c>
@@ -5212,8 +5221,8 @@
       <c r="V49" s="52"/>
       <c r="W49" s="53"/>
     </row>
-    <row r="50" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="214"/>
+    <row r="50" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="215"/>
       <c r="B50" s="41" t="s">
         <v>90</v>
       </c>
@@ -5241,8 +5250,8 @@
       <c r="V50" s="52"/>
       <c r="W50" s="53"/>
     </row>
-    <row r="51" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="214"/>
+    <row r="51" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="215"/>
       <c r="B51" s="41" t="s">
         <v>91</v>
       </c>
@@ -5270,8 +5279,8 @@
       <c r="V51" s="52"/>
       <c r="W51" s="53"/>
     </row>
-    <row r="52" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="214"/>
+    <row r="52" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="215"/>
       <c r="B52" s="41" t="s">
         <v>92</v>
       </c>
@@ -5299,8 +5308,8 @@
       <c r="V52" s="52"/>
       <c r="W52" s="53"/>
     </row>
-    <row r="53" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="214"/>
+    <row r="53" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="215"/>
       <c r="B53" s="56" t="s">
         <v>93</v>
       </c>
@@ -5326,8 +5335,8 @@
       <c r="V53" s="52"/>
       <c r="W53" s="53"/>
     </row>
-    <row r="54" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="214"/>
+    <row r="54" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="215"/>
       <c r="B54" s="41" t="s">
         <v>94</v>
       </c>
@@ -5355,8 +5364,8 @@
       </c>
       <c r="W54" s="53"/>
     </row>
-    <row r="55" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="214"/>
+    <row r="55" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="215"/>
       <c r="B55" s="41" t="s">
         <v>95</v>
       </c>
@@ -5384,8 +5393,8 @@
       <c r="V55" s="52"/>
       <c r="W55" s="53"/>
     </row>
-    <row r="56" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="214"/>
+    <row r="56" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="215"/>
       <c r="B56" s="41" t="s">
         <v>96</v>
       </c>
@@ -5413,8 +5422,8 @@
       <c r="V56" s="35"/>
       <c r="W56" s="53"/>
     </row>
-    <row r="57" spans="1:23" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="216"/>
+    <row r="57" spans="1:23" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="217"/>
       <c r="B57" s="55" t="s">
         <v>97</v>
       </c>
@@ -5441,8 +5450,8 @@
       <c r="V57" s="52"/>
       <c r="W57" s="53"/>
     </row>
-    <row r="58" spans="1:23" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="206" t="s">
+    <row r="58" spans="1:23" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="207" t="s">
         <v>98</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -5472,8 +5481,8 @@
       <c r="V58" s="52"/>
       <c r="W58" s="53"/>
     </row>
-    <row r="59" spans="1:23" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="207"/>
+    <row r="59" spans="1:23" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="208"/>
       <c r="B59" s="41" t="s">
         <v>100</v>
       </c>
@@ -5499,8 +5508,8 @@
       <c r="V59" s="52"/>
       <c r="W59" s="53"/>
     </row>
-    <row r="60" spans="1:23" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="207"/>
+    <row r="60" spans="1:23" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="208"/>
       <c r="B60" s="41" t="s">
         <v>101</v>
       </c>
@@ -5528,8 +5537,8 @@
       <c r="V60" s="52"/>
       <c r="W60" s="53"/>
     </row>
-    <row r="61" spans="1:23" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="207"/>
+    <row r="61" spans="1:23" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="208"/>
       <c r="B61" s="41" t="s">
         <v>102</v>
       </c>
@@ -5557,8 +5566,8 @@
       <c r="V61" s="52"/>
       <c r="W61" s="53"/>
     </row>
-    <row r="62" spans="1:23" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="207"/>
+    <row r="62" spans="1:23" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="208"/>
       <c r="B62" s="41" t="s">
         <v>103</v>
       </c>
@@ -5586,8 +5595,8 @@
       <c r="V62" s="52"/>
       <c r="W62" s="53"/>
     </row>
-    <row r="63" spans="1:23" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="207"/>
+    <row r="63" spans="1:23" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="208"/>
       <c r="B63" s="41" t="s">
         <v>104</v>
       </c>
@@ -5615,8 +5624,8 @@
       <c r="V63" s="52"/>
       <c r="W63" s="53"/>
     </row>
-    <row r="64" spans="1:23" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="207"/>
+    <row r="64" spans="1:23" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="208"/>
       <c r="B64" s="41" t="s">
         <v>105</v>
       </c>
@@ -5648,8 +5657,8 @@
       <c r="V64" s="52"/>
       <c r="W64" s="53"/>
     </row>
-    <row r="65" spans="1:41" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="207"/>
+    <row r="65" spans="1:41" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="208"/>
       <c r="B65" s="41" t="s">
         <v>106</v>
       </c>
@@ -5677,8 +5686,8 @@
       <c r="V65" s="52"/>
       <c r="W65" s="53"/>
     </row>
-    <row r="66" spans="1:41" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="207"/>
+    <row r="66" spans="1:41" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="208"/>
       <c r="B66" s="57" t="s">
         <v>107</v>
       </c>
@@ -5706,8 +5715,8 @@
       <c r="V66" s="52"/>
       <c r="W66" s="53"/>
     </row>
-    <row r="67" spans="1:41" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="207"/>
+    <row r="67" spans="1:41" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="208"/>
       <c r="B67" s="41" t="s">
         <v>108</v>
       </c>
@@ -5735,8 +5744,8 @@
       <c r="V67" s="52"/>
       <c r="W67" s="53"/>
     </row>
-    <row r="68" spans="1:41" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="207"/>
+    <row r="68" spans="1:41" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="208"/>
       <c r="B68" s="41" t="s">
         <v>109</v>
       </c>
@@ -5764,8 +5773,8 @@
       <c r="V68" s="52"/>
       <c r="W68" s="53"/>
     </row>
-    <row r="69" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="207"/>
+    <row r="69" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="208"/>
       <c r="B69" s="41" t="s">
         <v>110</v>
       </c>
@@ -5811,8 +5820,8 @@
       <c r="AN69" s="7"/>
       <c r="AO69" s="7"/>
     </row>
-    <row r="70" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="207"/>
+    <row r="70" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="208"/>
       <c r="B70" s="41" t="s">
         <v>111</v>
       </c>
@@ -5858,8 +5867,8 @@
       <c r="AN70" s="7"/>
       <c r="AO70" s="7"/>
     </row>
-    <row r="71" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="207"/>
+    <row r="71" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="208"/>
       <c r="B71" s="41" t="s">
         <v>112</v>
       </c>
@@ -5905,8 +5914,8 @@
       <c r="AN71" s="7"/>
       <c r="AO71" s="7"/>
     </row>
-    <row r="72" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="207"/>
+    <row r="72" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="208"/>
       <c r="B72" s="41" t="s">
         <v>113</v>
       </c>
@@ -5952,8 +5961,8 @@
       <c r="AN72" s="7"/>
       <c r="AO72" s="7"/>
     </row>
-    <row r="73" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="207"/>
+    <row r="73" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="208"/>
       <c r="B73" s="41" t="s">
         <v>114</v>
       </c>
@@ -5999,8 +6008,8 @@
       <c r="AN73" s="7"/>
       <c r="AO73" s="7"/>
     </row>
-    <row r="74" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="208"/>
+    <row r="74" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="209"/>
       <c r="B74" s="55" t="s">
         <v>115</v>
       </c>
@@ -6046,7 +6055,7 @@
       <c r="AN74" s="7"/>
       <c r="AO74" s="7"/>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B75" s="64"/>
       <c r="C75" s="65"/>
       <c r="D75" s="65"/>
@@ -6088,7 +6097,7 @@
       <c r="AN75" s="7"/>
       <c r="AO75" s="7"/>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -6129,7 +6138,7 @@
       <c r="AN76" s="7"/>
       <c r="AO76" s="7"/>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -6170,7 +6179,7 @@
       <c r="AN77" s="7"/>
       <c r="AO77" s="7"/>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -6211,7 +6220,7 @@
       <c r="AN78" s="7"/>
       <c r="AO78" s="7"/>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -6252,7 +6261,7 @@
       <c r="AN79" s="7"/>
       <c r="AO79" s="7"/>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -6293,7 +6302,7 @@
       <c r="AN80" s="7"/>
       <c r="AO80" s="7"/>
     </row>
-    <row r="81" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -6334,7 +6343,7 @@
       <c r="AN81" s="7"/>
       <c r="AO81" s="7"/>
     </row>
-    <row r="82" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -6375,7 +6384,7 @@
       <c r="AN82" s="7"/>
       <c r="AO82" s="7"/>
     </row>
-    <row r="83" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -6416,7 +6425,7 @@
       <c r="AN83" s="7"/>
       <c r="AO83" s="7"/>
     </row>
-    <row r="84" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -6457,7 +6466,7 @@
       <c r="AN84" s="7"/>
       <c r="AO84" s="7"/>
     </row>
-    <row r="85" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -6498,7 +6507,7 @@
       <c r="AN85" s="7"/>
       <c r="AO85" s="7"/>
     </row>
-    <row r="86" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -6539,7 +6548,7 @@
       <c r="AN86" s="7"/>
       <c r="AO86" s="7"/>
     </row>
-    <row r="87" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -6580,7 +6589,7 @@
       <c r="AN87" s="7"/>
       <c r="AO87" s="7"/>
     </row>
-    <row r="88" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -6621,7 +6630,7 @@
       <c r="AN88" s="7"/>
       <c r="AO88" s="7"/>
     </row>
-    <row r="89" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -6662,7 +6671,7 @@
       <c r="AN89" s="7"/>
       <c r="AO89" s="7"/>
     </row>
-    <row r="90" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -6703,7 +6712,7 @@
       <c r="AN90" s="7"/>
       <c r="AO90" s="7"/>
     </row>
-    <row r="91" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -6744,7 +6753,7 @@
       <c r="AN91" s="7"/>
       <c r="AO91" s="7"/>
     </row>
-    <row r="92" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -6785,7 +6794,7 @@
       <c r="AN92" s="7"/>
       <c r="AO92" s="7"/>
     </row>
-    <row r="93" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -6826,7 +6835,7 @@
       <c r="AN93" s="7"/>
       <c r="AO93" s="7"/>
     </row>
-    <row r="94" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -6867,7 +6876,7 @@
       <c r="AN94" s="7"/>
       <c r="AO94" s="7"/>
     </row>
-    <row r="95" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -6908,7 +6917,7 @@
       <c r="AN95" s="7"/>
       <c r="AO95" s="7"/>
     </row>
-    <row r="96" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -6949,7 +6958,7 @@
       <c r="AN96" s="7"/>
       <c r="AO96" s="7"/>
     </row>
-    <row r="97" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -6990,7 +6999,7 @@
       <c r="AN97" s="7"/>
       <c r="AO97" s="7"/>
     </row>
-    <row r="98" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -7031,7 +7040,7 @@
       <c r="AN98" s="7"/>
       <c r="AO98" s="7"/>
     </row>
-    <row r="99" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -7072,7 +7081,7 @@
       <c r="AN99" s="7"/>
       <c r="AO99" s="7"/>
     </row>
-    <row r="100" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -7113,7 +7122,7 @@
       <c r="AN100" s="7"/>
       <c r="AO100" s="7"/>
     </row>
-    <row r="101" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -7154,7 +7163,7 @@
       <c r="AN101" s="7"/>
       <c r="AO101" s="7"/>
     </row>
-    <row r="102" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -7195,7 +7204,7 @@
       <c r="AN102" s="7"/>
       <c r="AO102" s="7"/>
     </row>
-    <row r="103" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -7236,7 +7245,7 @@
       <c r="AN103" s="7"/>
       <c r="AO103" s="7"/>
     </row>
-    <row r="104" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -7277,7 +7286,7 @@
       <c r="AN104" s="7"/>
       <c r="AO104" s="7"/>
     </row>
-    <row r="105" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -7318,7 +7327,7 @@
       <c r="AN105" s="7"/>
       <c r="AO105" s="7"/>
     </row>
-    <row r="106" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -7359,7 +7368,7 @@
       <c r="AN106" s="7"/>
       <c r="AO106" s="7"/>
     </row>
-    <row r="107" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -7400,7 +7409,7 @@
       <c r="AN107" s="7"/>
       <c r="AO107" s="7"/>
     </row>
-    <row r="108" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -7441,7 +7450,7 @@
       <c r="AN108" s="7"/>
       <c r="AO108" s="7"/>
     </row>
-    <row r="109" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -7482,7 +7491,7 @@
       <c r="AN109" s="7"/>
       <c r="AO109" s="7"/>
     </row>
-    <row r="110" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -7523,7 +7532,7 @@
       <c r="AN110" s="7"/>
       <c r="AO110" s="7"/>
     </row>
-    <row r="111" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -7564,7 +7573,7 @@
       <c r="AN111" s="7"/>
       <c r="AO111" s="7"/>
     </row>
-    <row r="112" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -7605,7 +7614,7 @@
       <c r="AN112" s="7"/>
       <c r="AO112" s="7"/>
     </row>
-    <row r="113" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:41" x14ac:dyDescent="0.2">
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -7646,7 +7655,7 @@
       <c r="AN113" s="7"/>
       <c r="AO113" s="7"/>
     </row>
-    <row r="114" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:41" x14ac:dyDescent="0.2">
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -7687,7 +7696,7 @@
       <c r="AN114" s="7"/>
       <c r="AO114" s="7"/>
     </row>
-    <row r="115" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:41" x14ac:dyDescent="0.2">
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -7728,7 +7737,7 @@
       <c r="AN115" s="7"/>
       <c r="AO115" s="7"/>
     </row>
-    <row r="116" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:41" x14ac:dyDescent="0.2">
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -7769,7 +7778,7 @@
       <c r="AN116" s="7"/>
       <c r="AO116" s="7"/>
     </row>
-    <row r="117" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:41" x14ac:dyDescent="0.2">
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -7810,7 +7819,7 @@
       <c r="AN117" s="7"/>
       <c r="AO117" s="7"/>
     </row>
-    <row r="118" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B118" s="64"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -7852,7 +7861,7 @@
       <c r="AN118" s="7"/>
       <c r="AO118" s="7"/>
     </row>
-    <row r="119" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B119" s="64"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -7894,7 +7903,7 @@
       <c r="AN119" s="7"/>
       <c r="AO119" s="7"/>
     </row>
-    <row r="120" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B120" s="64"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -7936,7 +7945,7 @@
       <c r="AN120" s="7"/>
       <c r="AO120" s="7"/>
     </row>
-    <row r="121" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B121" s="64"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -7978,7 +7987,7 @@
       <c r="AN121" s="7"/>
       <c r="AO121" s="7"/>
     </row>
-    <row r="122" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B122" s="64"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -8020,7 +8029,7 @@
       <c r="AN122" s="7"/>
       <c r="AO122" s="7"/>
     </row>
-    <row r="123" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B123" s="64"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -8062,7 +8071,7 @@
       <c r="AN123" s="7"/>
       <c r="AO123" s="7"/>
     </row>
-    <row r="124" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B124" s="64"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -8104,7 +8113,7 @@
       <c r="AN124" s="7"/>
       <c r="AO124" s="7"/>
     </row>
-    <row r="125" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B125" s="64"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -8146,7 +8155,7 @@
       <c r="AN125" s="7"/>
       <c r="AO125" s="7"/>
     </row>
-    <row r="126" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B126" s="64"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -8188,7 +8197,7 @@
       <c r="AN126" s="7"/>
       <c r="AO126" s="7"/>
     </row>
-    <row r="127" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B127" s="64"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -8230,7 +8239,7 @@
       <c r="AN127" s="7"/>
       <c r="AO127" s="7"/>
     </row>
-    <row r="128" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B128" s="64"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -8272,7 +8281,7 @@
       <c r="AN128" s="7"/>
       <c r="AO128" s="7"/>
     </row>
-    <row r="129" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B129" s="64"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -8314,7 +8323,7 @@
       <c r="AN129" s="7"/>
       <c r="AO129" s="7"/>
     </row>
-    <row r="130" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B130" s="64"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -8356,7 +8365,7 @@
       <c r="AN130" s="7"/>
       <c r="AO130" s="7"/>
     </row>
-    <row r="131" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B131" s="64"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -8398,7 +8407,7 @@
       <c r="AN131" s="7"/>
       <c r="AO131" s="7"/>
     </row>
-    <row r="132" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B132" s="64"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -8440,7 +8449,7 @@
       <c r="AN132" s="7"/>
       <c r="AO132" s="7"/>
     </row>
-    <row r="133" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B133" s="64"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -8482,7 +8491,7 @@
       <c r="AN133" s="7"/>
       <c r="AO133" s="7"/>
     </row>
-    <row r="134" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B134" s="64"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -8524,7 +8533,7 @@
       <c r="AN134" s="7"/>
       <c r="AO134" s="7"/>
     </row>
-    <row r="135" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B135" s="64"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -8566,7 +8575,7 @@
       <c r="AN135" s="7"/>
       <c r="AO135" s="7"/>
     </row>
-    <row r="136" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B136" s="64"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -8608,7 +8617,7 @@
       <c r="AN136" s="7"/>
       <c r="AO136" s="7"/>
     </row>
-    <row r="137" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B137" s="64"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -8650,7 +8659,7 @@
       <c r="AN137" s="7"/>
       <c r="AO137" s="7"/>
     </row>
-    <row r="138" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B138" s="64"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -8692,7 +8701,7 @@
       <c r="AN138" s="7"/>
       <c r="AO138" s="7"/>
     </row>
-    <row r="139" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B139" s="64"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -8734,7 +8743,7 @@
       <c r="AN139" s="7"/>
       <c r="AO139" s="7"/>
     </row>
-    <row r="140" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B140" s="64"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -8776,7 +8785,7 @@
       <c r="AN140" s="7"/>
       <c r="AO140" s="7"/>
     </row>
-    <row r="141" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B141" s="64"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -8818,7 +8827,7 @@
       <c r="AN141" s="7"/>
       <c r="AO141" s="7"/>
     </row>
-    <row r="142" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B142" s="64"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -8860,7 +8869,7 @@
       <c r="AN142" s="7"/>
       <c r="AO142" s="7"/>
     </row>
-    <row r="143" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B143" s="64"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -8902,7 +8911,7 @@
       <c r="AN143" s="7"/>
       <c r="AO143" s="7"/>
     </row>
-    <row r="144" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B144" s="64"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -8944,7 +8953,7 @@
       <c r="AN144" s="7"/>
       <c r="AO144" s="7"/>
     </row>
-    <row r="145" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B145" s="64"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
@@ -8986,7 +8995,7 @@
       <c r="AN145" s="7"/>
       <c r="AO145" s="7"/>
     </row>
-    <row r="146" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B146" s="64"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
@@ -9028,7 +9037,7 @@
       <c r="AN146" s="7"/>
       <c r="AO146" s="7"/>
     </row>
-    <row r="147" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B147" s="64"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
@@ -9070,7 +9079,7 @@
       <c r="AN147" s="7"/>
       <c r="AO147" s="7"/>
     </row>
-    <row r="148" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B148" s="64"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
@@ -9112,7 +9121,7 @@
       <c r="AN148" s="7"/>
       <c r="AO148" s="7"/>
     </row>
-    <row r="149" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B149" s="64"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
@@ -9154,7 +9163,7 @@
       <c r="AN149" s="7"/>
       <c r="AO149" s="7"/>
     </row>
-    <row r="150" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B150" s="64"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
@@ -9196,7 +9205,7 @@
       <c r="AN150" s="7"/>
       <c r="AO150" s="7"/>
     </row>
-    <row r="151" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B151" s="64"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
@@ -9238,7 +9247,7 @@
       <c r="AN151" s="7"/>
       <c r="AO151" s="7"/>
     </row>
-    <row r="152" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B152" s="64"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
@@ -9280,7 +9289,7 @@
       <c r="AN152" s="7"/>
       <c r="AO152" s="7"/>
     </row>
-    <row r="153" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B153" s="64"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
@@ -9322,7 +9331,7 @@
       <c r="AN153" s="7"/>
       <c r="AO153" s="7"/>
     </row>
-    <row r="154" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B154" s="64"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
@@ -9364,7 +9373,7 @@
       <c r="AN154" s="7"/>
       <c r="AO154" s="7"/>
     </row>
-    <row r="155" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B155" s="64"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
@@ -9406,7 +9415,7 @@
       <c r="AN155" s="7"/>
       <c r="AO155" s="7"/>
     </row>
-    <row r="156" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B156" s="64"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
@@ -9448,7 +9457,7 @@
       <c r="AN156" s="7"/>
       <c r="AO156" s="7"/>
     </row>
-    <row r="157" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B157" s="64"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
@@ -9490,7 +9499,7 @@
       <c r="AN157" s="7"/>
       <c r="AO157" s="7"/>
     </row>
-    <row r="158" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B158" s="64"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
@@ -9532,7 +9541,7 @@
       <c r="AN158" s="7"/>
       <c r="AO158" s="7"/>
     </row>
-    <row r="159" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B159" s="64"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
@@ -9574,7 +9583,7 @@
       <c r="AN159" s="7"/>
       <c r="AO159" s="7"/>
     </row>
-    <row r="160" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B160" s="64"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
@@ -9616,7 +9625,7 @@
       <c r="AN160" s="7"/>
       <c r="AO160" s="7"/>
     </row>
-    <row r="161" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B161" s="64"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
@@ -9658,7 +9667,7 @@
       <c r="AN161" s="7"/>
       <c r="AO161" s="7"/>
     </row>
-    <row r="162" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B162" s="64"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
@@ -9700,7 +9709,7 @@
       <c r="AN162" s="7"/>
       <c r="AO162" s="7"/>
     </row>
-    <row r="163" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B163" s="64"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
@@ -9742,7 +9751,7 @@
       <c r="AN163" s="7"/>
       <c r="AO163" s="7"/>
     </row>
-    <row r="164" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B164" s="64"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
@@ -9784,7 +9793,7 @@
       <c r="AN164" s="7"/>
       <c r="AO164" s="7"/>
     </row>
-    <row r="165" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B165" s="64"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
@@ -9826,7 +9835,7 @@
       <c r="AN165" s="7"/>
       <c r="AO165" s="7"/>
     </row>
-    <row r="166" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B166" s="64"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
@@ -9868,7 +9877,7 @@
       <c r="AN166" s="7"/>
       <c r="AO166" s="7"/>
     </row>
-    <row r="167" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B167" s="64"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
@@ -9910,7 +9919,7 @@
       <c r="AN167" s="7"/>
       <c r="AO167" s="7"/>
     </row>
-    <row r="168" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B168" s="64"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
@@ -9952,7 +9961,7 @@
       <c r="AN168" s="7"/>
       <c r="AO168" s="7"/>
     </row>
-    <row r="169" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B169" s="64"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
@@ -9994,556 +10003,556 @@
       <c r="AN169" s="7"/>
       <c r="AO169" s="7"/>
     </row>
-    <row r="170" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B170" s="64"/>
     </row>
-    <row r="171" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B171" s="64"/>
     </row>
-    <row r="172" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B172" s="64"/>
     </row>
-    <row r="173" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B173" s="64"/>
     </row>
-    <row r="174" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B174" s="64"/>
     </row>
-    <row r="175" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B175" s="64"/>
     </row>
-    <row r="176" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B176" s="64"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B177" s="64"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B178" s="64"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B179" s="64"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B180" s="64"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B181" s="64"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B182" s="64"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B183" s="64"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B184" s="64"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B185" s="64"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B186" s="64"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B187" s="64"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B188" s="64"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B189" s="64"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B190" s="64"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B191" s="64"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B192" s="64"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B193" s="64"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B194" s="64"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B195" s="64"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B196" s="64"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B197" s="64"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B198" s="64"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B199" s="64"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B200" s="64"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B201" s="64"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B202" s="64"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B203" s="64"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B204" s="64"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B205" s="64"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B206" s="64"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B207" s="64"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B208" s="64"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="64"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="64"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="64"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="64"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="64"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="64"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="64"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="64"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="64"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="64"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="64"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="64"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="64"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" s="64"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" s="64"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" s="64"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" s="64"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" s="64"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" s="64"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" s="64"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229" s="64"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B230" s="64"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B231" s="64"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B232" s="64"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B233" s="64"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B234" s="64"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B235" s="64"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B236" s="64"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B237" s="64"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B238" s="64"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B239" s="64"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B240" s="64"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B241" s="64"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242" s="64"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B243" s="64"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B244" s="64"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B245" s="64"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B246" s="64"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247" s="64"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B248" s="64"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B249" s="64"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B250" s="64"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B251" s="64"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B252" s="64"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B253" s="64"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B254" s="64"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B255" s="64"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B256" s="64"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B257" s="64"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B258" s="64"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B259" s="64"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B260" s="64"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B261" s="64"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B262" s="64"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B263" s="64"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B264" s="64"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B265" s="64"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B266" s="64"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B267" s="64"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B268" s="64"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B269" s="64"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B270" s="64"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B271" s="64"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B272" s="64"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B273" s="64"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B274" s="64"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B275" s="64"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B276" s="64"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B277" s="64"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B278" s="64"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B279" s="64"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B280" s="64"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B281" s="64"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B282" s="64"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B283" s="64"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B284" s="64"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B285" s="64"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B286" s="64"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B287" s="64"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B288" s="64"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B289" s="64"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B290" s="64"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B291" s="64"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B292" s="64"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B293" s="64"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B294" s="64"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B295" s="64"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B296" s="64"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B297" s="64"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B298" s="64"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B299" s="64"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B300" s="64"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B301" s="64"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B302" s="64"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B303" s="64"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B304" s="64"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B305" s="64"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B306" s="64"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B307" s="64"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B308" s="64"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B309" s="64"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B310" s="64"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B311" s="64"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B312" s="64"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B313" s="64"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B314" s="64"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B315" s="64"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B316" s="64"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B317" s="64"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B318" s="64"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B319" s="64"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B320" s="64"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B321" s="64"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B322" s="64"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B323" s="64"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B324" s="64"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B325" s="64"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B326" s="64"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B327" s="64"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B328" s="64"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B329" s="64"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B330" s="64"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B331" s="64"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B332" s="64"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B333" s="64"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B334" s="64"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B335" s="64"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B336" s="64"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B337" s="64"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B338" s="64"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B339" s="64"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B340" s="64"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B341" s="64"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B342" s="64"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B343" s="64"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B344" s="64"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B345" s="64"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B346" s="64"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B347" s="64"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B348" s="64"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B349" s="64"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B350" s="64"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B351" s="64"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B352" s="64"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B353" s="64"/>
     </row>
   </sheetData>
@@ -10569,25 +10578,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A64CCC4-5DBA-E644-BBBF-EE38F5D5AC77}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="96.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="96.6640625" customWidth="1"/>
     <col min="3" max="3" width="139" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="199" t="s">
+    <row r="1" spans="1:3" ht="26" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="196" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="200"/>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="221"/>
+      <c r="C1" s="197"/>
+    </row>
+    <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="167" t="s">
         <v>116</v>
       </c>
@@ -10598,7 +10607,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="159" t="s">
         <v>119</v>
       </c>
@@ -10607,7 +10616,7 @@
       </c>
       <c r="C3" s="161"/>
     </row>
-    <row r="4" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="162" t="s">
         <v>174</v>
       </c>
@@ -10618,7 +10627,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="162" t="s">
         <v>177</v>
       </c>
@@ -10629,75 +10638,75 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="393.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="228" t="s">
+    <row r="6" spans="1:3" ht="404" x14ac:dyDescent="0.2">
+      <c r="A6" s="222" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="224" t="s">
         <v>121</v>
       </c>
       <c r="C6" s="164" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="229"/>
-      <c r="B7" s="232"/>
+    <row r="7" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+      <c r="A7" s="223"/>
+      <c r="B7" s="225"/>
       <c r="C7" s="164" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="229"/>
-      <c r="B8" s="233"/>
+    <row r="8" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="223"/>
+      <c r="B8" s="226"/>
       <c r="C8" s="164" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="228" t="s">
+    <row r="9" spans="1:3" ht="289" x14ac:dyDescent="0.2">
+      <c r="A9" s="222" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="231" t="s">
+      <c r="B9" s="224" t="s">
         <v>180</v>
       </c>
       <c r="C9" s="164" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="229"/>
-      <c r="B10" s="232"/>
+    <row r="10" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+      <c r="A10" s="223"/>
+      <c r="B10" s="225"/>
       <c r="C10" s="164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="229"/>
-      <c r="B11" s="232"/>
+    <row r="11" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+      <c r="A11" s="223"/>
+      <c r="B11" s="225"/>
       <c r="C11" s="164" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="230"/>
-      <c r="B12" s="233"/>
+    <row r="12" spans="1:3" ht="289" x14ac:dyDescent="0.2">
+      <c r="A12" s="227"/>
+      <c r="B12" s="226"/>
       <c r="C12" s="164" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A13" s="162" t="s">
         <v>123</v>
       </c>
       <c r="B13" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="234" t="s">
+      <c r="C13" s="195" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="166" t="s">
         <v>125</v>
       </c>
@@ -10706,7 +10715,7 @@
       </c>
       <c r="C14" s="165"/>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="162" t="s">
         <v>127</v>
       </c>
@@ -10715,7 +10724,7 @@
       </c>
       <c r="C15" s="163"/>
     </row>
-    <row r="16" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="166" t="s">
         <v>128</v>
       </c>
@@ -10726,7 +10735,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="162" t="s">
         <v>129</v>
       </c>
@@ -10737,7 +10746,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="162" t="s">
         <v>131</v>
       </c>
@@ -10748,7 +10757,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="162" t="s">
         <v>133</v>
       </c>
@@ -10759,7 +10768,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="162" t="s">
         <v>134</v>
       </c>
@@ -10770,7 +10779,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="162" t="s">
         <v>135</v>
       </c>
@@ -10779,7 +10788,7 @@
       </c>
       <c r="C21" s="163"/>
     </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="170" t="s">
         <v>135</v>
       </c>
@@ -10808,25 +10817,25 @@
   <dimension ref="A1:CC165"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="9" width="8.85546875" style="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" customWidth="1"/>
-    <col min="15" max="22" width="8.85546875" style="1"/>
-    <col min="23" max="23" width="8.85546875" style="111"/>
-    <col min="24" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="41.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="9" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="1" customWidth="1"/>
+    <col min="15" max="22" width="8.83203125" style="1"/>
+    <col min="23" max="23" width="8.83203125" style="111"/>
+    <col min="24" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A1" s="67"/>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -10909,7 +10918,7 @@
       <c r="CB1" s="67"/>
       <c r="CC1" s="67"/>
     </row>
-    <row r="2" spans="1:81" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:81" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
         <v>168</v>
       </c>
@@ -10994,7 +11003,7 @@
       <c r="CB2" s="67"/>
       <c r="CC2" s="67"/>
     </row>
-    <row r="3" spans="1:81" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:81" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="187" t="s">
         <v>198</v>
       </c>
@@ -11079,41 +11088,41 @@
       <c r="CB3" s="67"/>
       <c r="CC3" s="67"/>
     </row>
-    <row r="4" spans="1:81" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="221" t="s">
+    <row r="4" spans="1:81" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="228" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="201" t="s">
+      <c r="B4" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="201" t="s">
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="203"/>
-      <c r="N4" s="201" t="s">
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="202"/>
-      <c r="P4" s="203"/>
-      <c r="Q4" s="201" t="s">
+      <c r="O4" s="203"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="202"/>
-      <c r="S4" s="203"/>
-      <c r="T4" s="201" t="s">
+      <c r="R4" s="203"/>
+      <c r="S4" s="204"/>
+      <c r="T4" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="202"/>
-      <c r="V4" s="203"/>
+      <c r="U4" s="203"/>
+      <c r="V4" s="204"/>
       <c r="W4" s="69"/>
       <c r="X4" s="67"/>
       <c r="Y4" s="67"/>
@@ -11174,8 +11183,8 @@
       <c r="CB4" s="67"/>
       <c r="CC4" s="67"/>
     </row>
-    <row r="5" spans="1:81" ht="164.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="222"/>
+    <row r="5" spans="1:81" ht="164" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="229"/>
       <c r="B5" s="178" t="s">
         <v>19</v>
       </c>
@@ -11185,7 +11194,7 @@
       <c r="D5" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="179" t="s">
+      <c r="E5" s="235" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="180" t="s">
@@ -11301,7 +11310,7 @@
       <c r="CB5" s="71"/>
       <c r="CC5" s="71"/>
     </row>
-    <row r="6" spans="1:81" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:81" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="79" t="s">
         <v>141</v>
       </c>
@@ -11314,7 +11323,7 @@
       <c r="D6" s="182">
         <v>1</v>
       </c>
-      <c r="E6" s="182">
+      <c r="E6" s="236">
         <v>1</v>
       </c>
       <c r="F6" s="183">
@@ -11428,7 +11437,7 @@
       <c r="CB6" s="71"/>
       <c r="CC6" s="71"/>
     </row>
-    <row r="7" spans="1:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="84" t="s">
         <v>142</v>
       </c>
@@ -11441,7 +11450,7 @@
       <c r="D7" s="185">
         <v>1</v>
       </c>
-      <c r="E7" s="185">
+      <c r="E7" s="237">
         <v>1</v>
       </c>
       <c r="F7" s="186">
@@ -11555,7 +11564,7 @@
       <c r="CB7" s="71"/>
       <c r="CC7" s="71"/>
     </row>
-    <row r="8" spans="1:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="89" t="s">
         <v>116</v>
       </c>
@@ -11640,7 +11649,7 @@
       <c r="CB8" s="71"/>
       <c r="CC8" s="71"/>
     </row>
-    <row r="9" spans="1:81" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:81" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="79" t="s">
         <v>143</v>
       </c>
@@ -11770,7 +11779,7 @@
       <c r="CB9" s="71"/>
       <c r="CC9" s="71"/>
     </row>
-    <row r="10" spans="1:81" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:81" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="98" t="s">
         <v>120</v>
       </c>
@@ -11900,7 +11909,7 @@
       <c r="CB10" s="71"/>
       <c r="CC10" s="71"/>
     </row>
-    <row r="11" spans="1:81" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:81" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="98" t="s">
         <v>122</v>
       </c>
@@ -11913,10 +11922,10 @@
       <c r="D11" s="189">
         <v>1</v>
       </c>
-      <c r="E11" s="189">
-        <v>1</v>
-      </c>
-      <c r="F11" s="235">
+      <c r="E11" s="238">
+        <v>1</v>
+      </c>
+      <c r="F11" s="176">
         <v>1</v>
       </c>
       <c r="G11" s="101">
@@ -12030,7 +12039,7 @@
       <c r="CB11" s="71"/>
       <c r="CC11" s="71"/>
     </row>
-    <row r="12" spans="1:81" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:81" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="98" t="s">
         <v>123</v>
       </c>
@@ -12040,13 +12049,13 @@
       <c r="C12" s="189">
         <v>1</v>
       </c>
-      <c r="D12" s="236">
-        <v>1</v>
-      </c>
-      <c r="E12" s="236">
-        <v>1</v>
-      </c>
-      <c r="F12" s="235">
+      <c r="D12" s="100">
+        <v>1</v>
+      </c>
+      <c r="E12" s="100">
+        <v>1</v>
+      </c>
+      <c r="F12" s="176">
         <v>1</v>
       </c>
       <c r="G12" s="101">
@@ -12160,7 +12169,7 @@
       <c r="CB12" s="71"/>
       <c r="CC12" s="71"/>
     </row>
-    <row r="13" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:81" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="103" t="s">
         <v>125</v>
       </c>
@@ -12290,7 +12299,7 @@
       <c r="CB13" s="71"/>
       <c r="CC13" s="71"/>
     </row>
-    <row r="14" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:81" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="98" t="s">
         <v>127</v>
       </c>
@@ -12420,7 +12429,7 @@
       <c r="CB14" s="71"/>
       <c r="CC14" s="71"/>
     </row>
-    <row r="15" spans="1:81" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:81" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="103" t="s">
         <v>128</v>
       </c>
@@ -12550,7 +12559,7 @@
       <c r="CB15" s="71"/>
       <c r="CC15" s="71"/>
     </row>
-    <row r="16" spans="1:81" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:81" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="98" t="s">
         <v>129</v>
       </c>
@@ -12680,7 +12689,7 @@
       <c r="CB16" s="71"/>
       <c r="CC16" s="71"/>
     </row>
-    <row r="17" spans="1:81" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:81" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="98" t="s">
         <v>131</v>
       </c>
@@ -12810,7 +12819,7 @@
       <c r="CB17" s="71"/>
       <c r="CC17" s="71"/>
     </row>
-    <row r="18" spans="1:81" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:81" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="98" t="s">
         <v>133</v>
       </c>
@@ -12940,7 +12949,7 @@
       <c r="CB18" s="71"/>
       <c r="CC18" s="71"/>
     </row>
-    <row r="19" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:81" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="98" t="s">
         <v>134</v>
       </c>
@@ -13070,7 +13079,7 @@
       <c r="CB19" s="71"/>
       <c r="CC19" s="71"/>
     </row>
-    <row r="20" spans="1:81" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:81" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="106" t="s">
         <v>135</v>
       </c>
@@ -13200,439 +13209,439 @@
       <c r="CB20" s="71"/>
       <c r="CC20" s="108"/>
     </row>
-    <row r="21" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W21" s="110"/>
     </row>
-    <row r="22" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W22" s="110"/>
     </row>
-    <row r="23" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W23" s="110"/>
     </row>
-    <row r="24" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W24" s="110"/>
     </row>
-    <row r="25" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W25" s="110"/>
     </row>
-    <row r="26" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W26" s="110"/>
     </row>
-    <row r="27" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W27" s="110"/>
     </row>
-    <row r="28" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W28" s="110"/>
     </row>
-    <row r="29" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W29" s="110"/>
     </row>
-    <row r="30" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W30" s="110"/>
     </row>
-    <row r="31" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W31" s="110"/>
     </row>
-    <row r="32" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:81" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W32" s="110"/>
     </row>
-    <row r="33" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W33" s="110"/>
     </row>
-    <row r="34" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W34" s="110"/>
     </row>
-    <row r="35" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W35" s="110"/>
     </row>
-    <row r="36" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W36" s="110"/>
     </row>
-    <row r="37" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W37" s="110"/>
     </row>
-    <row r="38" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W38" s="110"/>
     </row>
-    <row r="39" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W39" s="110"/>
     </row>
-    <row r="40" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W40" s="110"/>
     </row>
-    <row r="41" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W41" s="110"/>
     </row>
-    <row r="42" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W42" s="110"/>
     </row>
-    <row r="43" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W43" s="110"/>
     </row>
-    <row r="44" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W44" s="110"/>
     </row>
-    <row r="45" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W45" s="110"/>
     </row>
-    <row r="46" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W46" s="110"/>
     </row>
-    <row r="47" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W47" s="110"/>
     </row>
-    <row r="48" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W48" s="110"/>
     </row>
-    <row r="49" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W49" s="110"/>
     </row>
-    <row r="50" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W50" s="110"/>
     </row>
-    <row r="51" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W51" s="110"/>
     </row>
-    <row r="52" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W52" s="110"/>
     </row>
-    <row r="53" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W53" s="110"/>
     </row>
-    <row r="54" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W54" s="110"/>
     </row>
-    <row r="55" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W55" s="110"/>
     </row>
-    <row r="56" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W56" s="110"/>
     </row>
-    <row r="57" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W57" s="110"/>
     </row>
-    <row r="58" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W58" s="110"/>
     </row>
-    <row r="59" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W59" s="110"/>
     </row>
-    <row r="60" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W60" s="110"/>
     </row>
-    <row r="61" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W61" s="110"/>
     </row>
-    <row r="62" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W62" s="110"/>
     </row>
-    <row r="63" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W63" s="110"/>
     </row>
-    <row r="64" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W64" s="110"/>
     </row>
-    <row r="65" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W65" s="110"/>
     </row>
-    <row r="66" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W66" s="110"/>
     </row>
-    <row r="67" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W67" s="110"/>
     </row>
-    <row r="68" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W68" s="110"/>
     </row>
-    <row r="69" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W69" s="110"/>
     </row>
-    <row r="70" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W70" s="110"/>
     </row>
-    <row r="71" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W71" s="110"/>
     </row>
-    <row r="72" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W72" s="110"/>
     </row>
-    <row r="73" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W73" s="110"/>
     </row>
-    <row r="74" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W74" s="110"/>
     </row>
-    <row r="75" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W75" s="110"/>
     </row>
-    <row r="76" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W76" s="110"/>
     </row>
-    <row r="77" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W77" s="110"/>
     </row>
-    <row r="78" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W78" s="110"/>
     </row>
-    <row r="79" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W79" s="110"/>
     </row>
-    <row r="80" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W80" s="110"/>
     </row>
-    <row r="81" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W81" s="110"/>
     </row>
-    <row r="82" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W82" s="110"/>
     </row>
-    <row r="83" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W83" s="110"/>
     </row>
-    <row r="84" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W84" s="110"/>
     </row>
-    <row r="85" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W85" s="110"/>
     </row>
-    <row r="86" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W86" s="110"/>
     </row>
-    <row r="87" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W87" s="110"/>
     </row>
-    <row r="88" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W88" s="110"/>
     </row>
-    <row r="89" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W89" s="110"/>
     </row>
-    <row r="90" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W90" s="110"/>
     </row>
-    <row r="91" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W91" s="110"/>
     </row>
-    <row r="92" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W92" s="110"/>
     </row>
-    <row r="93" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W93" s="110"/>
     </row>
-    <row r="94" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W94" s="110"/>
     </row>
-    <row r="95" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W95" s="110"/>
     </row>
-    <row r="96" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W96" s="110"/>
     </row>
-    <row r="97" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W97" s="110"/>
     </row>
-    <row r="98" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W98" s="110"/>
     </row>
-    <row r="99" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W99" s="110"/>
     </row>
-    <row r="100" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W100" s="110"/>
     </row>
-    <row r="101" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W101" s="110"/>
     </row>
-    <row r="102" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W102" s="110"/>
     </row>
-    <row r="103" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W103" s="110"/>
     </row>
-    <row r="104" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W104" s="110"/>
     </row>
-    <row r="105" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W105" s="110"/>
     </row>
-    <row r="106" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W106" s="110"/>
     </row>
-    <row r="107" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W107" s="110"/>
     </row>
-    <row r="108" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W108" s="110"/>
     </row>
-    <row r="109" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W109" s="110"/>
     </row>
-    <row r="110" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W110" s="110"/>
     </row>
-    <row r="111" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W111" s="110"/>
     </row>
-    <row r="112" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W112" s="110"/>
     </row>
-    <row r="113" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W113" s="110"/>
     </row>
-    <row r="114" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W114" s="110"/>
     </row>
-    <row r="115" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W115" s="110"/>
     </row>
-    <row r="116" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W116" s="110"/>
     </row>
-    <row r="117" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W117" s="110"/>
     </row>
-    <row r="118" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W118" s="110"/>
     </row>
-    <row r="119" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W119" s="110"/>
     </row>
-    <row r="120" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W120" s="110"/>
     </row>
-    <row r="121" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W121" s="110"/>
     </row>
-    <row r="122" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W122" s="110"/>
     </row>
-    <row r="123" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W123" s="110"/>
     </row>
-    <row r="124" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W124" s="110"/>
     </row>
-    <row r="125" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W125" s="110"/>
     </row>
-    <row r="126" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W126" s="110"/>
     </row>
-    <row r="127" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W127" s="110"/>
     </row>
-    <row r="128" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W128" s="110"/>
     </row>
-    <row r="129" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W129" s="110"/>
     </row>
-    <row r="130" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W130" s="110"/>
     </row>
-    <row r="131" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W131" s="110"/>
     </row>
-    <row r="132" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W132" s="110"/>
     </row>
-    <row r="133" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W133" s="110"/>
     </row>
-    <row r="134" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W134" s="110"/>
     </row>
-    <row r="135" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W135" s="110"/>
     </row>
-    <row r="136" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W136" s="110"/>
     </row>
-    <row r="137" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W137" s="110"/>
     </row>
-    <row r="138" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W138" s="110"/>
     </row>
-    <row r="139" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W139" s="110"/>
     </row>
-    <row r="140" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W140" s="110"/>
     </row>
-    <row r="141" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W141" s="110"/>
     </row>
-    <row r="142" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W142" s="110"/>
     </row>
-    <row r="143" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W143" s="110"/>
     </row>
-    <row r="144" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W144" s="110"/>
     </row>
-    <row r="145" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W145" s="110"/>
     </row>
-    <row r="146" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W146" s="110"/>
     </row>
-    <row r="147" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W147" s="110"/>
     </row>
-    <row r="148" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W148" s="110"/>
     </row>
-    <row r="149" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W149" s="110"/>
     </row>
-    <row r="150" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W150" s="110"/>
     </row>
-    <row r="151" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W151" s="110"/>
     </row>
-    <row r="152" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W152" s="110"/>
     </row>
-    <row r="153" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W153" s="110"/>
     </row>
-    <row r="154" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W154" s="110"/>
     </row>
-    <row r="155" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W155" s="110"/>
     </row>
-    <row r="156" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W156" s="110"/>
     </row>
-    <row r="157" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W157" s="110"/>
     </row>
-    <row r="158" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W158" s="110"/>
     </row>
-    <row r="159" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W159" s="110"/>
     </row>
-    <row r="160" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W160" s="110"/>
     </row>
-    <row r="161" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W161" s="110"/>
     </row>
-    <row r="162" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W162" s="110"/>
     </row>
-    <row r="163" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W163" s="110"/>
     </row>
-    <row r="164" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W164" s="110"/>
     </row>
-    <row r="165" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="23:23" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="W165" s="110"/>
     </row>
   </sheetData>
@@ -13652,25 +13661,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D8CD89-A0AC-264D-893D-EF0565B4844E}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="176" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="199" t="s">
+    <row r="1" spans="1:3" ht="26" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="196" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="200"/>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="221"/>
+      <c r="C1" s="197"/>
+    </row>
+    <row r="2" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="134" t="s">
         <v>144</v>
       </c>
@@ -13681,8 +13690,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="223" t="s">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="230" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="190" t="s">
@@ -13692,8 +13701,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="224"/>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="231"/>
       <c r="B4" s="191" t="s">
         <v>20</v>
       </c>
@@ -13701,8 +13710,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="224"/>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="231"/>
       <c r="B5" s="191" t="s">
         <v>21</v>
       </c>
@@ -13710,17 +13719,17 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="224"/>
-      <c r="B6" s="191" t="s">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="231"/>
+      <c r="B6" s="239" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="113" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="224"/>
+    <row r="7" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="231"/>
       <c r="B7" s="191" t="s">
         <v>192</v>
       </c>
@@ -13728,8 +13737,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="225"/>
+    <row r="8" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="232"/>
       <c r="B8" s="192" t="s">
         <v>190</v>
       </c>
@@ -13737,8 +13746,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="223" t="s">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="230" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="193" t="s">
@@ -13748,8 +13757,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="224"/>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="231"/>
       <c r="B10" s="194" t="s">
         <v>24</v>
       </c>
@@ -13757,8 +13766,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="224"/>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="231"/>
       <c r="B11" s="194" t="s">
         <v>25</v>
       </c>
@@ -13766,8 +13775,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="224"/>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="231"/>
       <c r="B12" s="194" t="s">
         <v>26</v>
       </c>
@@ -13775,8 +13784,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="224"/>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="231"/>
       <c r="B13" s="194" t="s">
         <v>27</v>
       </c>
@@ -13784,8 +13793,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="225"/>
+    <row r="14" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="232"/>
       <c r="B14" s="192" t="s">
         <v>28</v>
       </c>
@@ -13793,8 +13802,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="223" t="s">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="230" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="193" t="s">
@@ -13804,8 +13813,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="224"/>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="231"/>
       <c r="B16" s="194" t="s">
         <v>30</v>
       </c>
@@ -13813,8 +13822,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="225"/>
+    <row r="17" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="232"/>
       <c r="B17" s="192" t="s">
         <v>31</v>
       </c>
@@ -13822,8 +13831,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="223" t="s">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="230" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="193" t="s">
@@ -13833,8 +13842,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="224"/>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="231"/>
       <c r="B19" s="194" t="s">
         <v>33</v>
       </c>
@@ -13842,8 +13851,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="225"/>
+    <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="232"/>
       <c r="B20" s="192" t="s">
         <v>34</v>
       </c>
@@ -13851,8 +13860,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="223" t="s">
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="230" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="193" t="s">
@@ -13862,8 +13871,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="224"/>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="231"/>
       <c r="B22" s="194" t="s">
         <v>36</v>
       </c>
@@ -13871,8 +13880,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="225"/>
+    <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="232"/>
       <c r="B23" s="192" t="s">
         <v>37</v>
       </c>
@@ -13882,12 +13891,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13901,15 +13910,15 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="14" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="14" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="115" t="s">
         <v>169</v>
       </c>
@@ -13942,7 +13951,7 @@
       <c r="AB1" s="116"/>
       <c r="AC1" s="116"/>
     </row>
-    <row r="2" spans="1:40" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="117"/>
       <c r="B2" s="116"/>
       <c r="C2" s="116"/>
@@ -13984,41 +13993,41 @@
       <c r="AM2" s="116"/>
       <c r="AN2" s="116"/>
     </row>
-    <row r="3" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="226" t="s">
+    <row r="3" spans="1:40" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="233" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="211" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210" t="s">
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="210" t="s">
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="211" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="211"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="210" t="s">
+      <c r="O3" s="212"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="211"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="210" t="s">
+      <c r="R3" s="212"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="211"/>
-      <c r="V3" s="212"/>
+      <c r="U3" s="212"/>
+      <c r="V3" s="213"/>
       <c r="W3" s="116"/>
       <c r="X3" s="116"/>
       <c r="Y3" s="116"/>
@@ -14038,8 +14047,8 @@
       <c r="AM3" s="116"/>
       <c r="AN3" s="116"/>
     </row>
-    <row r="4" spans="1:40" ht="194.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="227"/>
+    <row r="4" spans="1:40" ht="194" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="234"/>
       <c r="B4" s="127" t="s">
         <v>19</v>
       </c>
@@ -14122,7 +14131,7 @@
       <c r="AM4" s="116"/>
       <c r="AN4" s="116"/>
     </row>
-    <row r="5" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="135" t="s">
         <v>170</v>
       </c>
@@ -14204,7 +14213,7 @@
       <c r="AM5" s="116"/>
       <c r="AN5" s="116"/>
     </row>
-    <row r="6" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="136" t="s">
         <v>171</v>
       </c>
@@ -14280,7 +14289,7 @@
       <c r="AM6" s="116"/>
       <c r="AN6" s="116"/>
     </row>
-    <row r="7" spans="1:40" s="116" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" s="116" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="137" t="s">
         <v>193</v>
       </c>
@@ -14316,7 +14325,7 @@
       <c r="U7" s="139"/>
       <c r="V7" s="146"/>
     </row>
-    <row r="8" spans="1:40" s="116" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" s="116" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="137" t="s">
         <v>194</v>
       </c>
@@ -14358,7 +14367,7 @@
       <c r="U8" s="140"/>
       <c r="V8" s="148"/>
     </row>
-    <row r="9" spans="1:40" s="116" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" s="116" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="177" t="s">
         <v>195</v>
       </c>
@@ -14390,7 +14399,7 @@
       <c r="U9" s="140"/>
       <c r="V9" s="148"/>
     </row>
-    <row r="10" spans="1:40" s="116" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" s="116" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="137" t="s">
         <v>196</v>
       </c>
@@ -14422,7 +14431,7 @@
       <c r="U10" s="140"/>
       <c r="V10" s="148"/>
     </row>
-    <row r="11" spans="1:40" s="116" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" s="116" customFormat="1" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="138" t="s">
         <v>197</v>
       </c>
@@ -14458,88 +14467,88 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="116" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:40" s="116" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:40" s="116" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:40" s="116" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:40" s="116" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" s="116" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:40" s="116" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:40" s="116" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:40" s="116" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:40" s="116" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="118"/>
     </row>
-    <row r="19" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="118"/>
     </row>
-    <row r="20" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="118"/>
     </row>
-    <row r="21" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="118"/>
     </row>
-    <row r="22" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="118"/>
     </row>
-    <row r="23" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="118"/>
     </row>
-    <row r="24" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="118"/>
     </row>
-    <row r="25" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="118"/>
     </row>
-    <row r="26" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="118"/>
     </row>
-    <row r="27" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="118"/>
     </row>
-    <row r="28" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="118"/>
     </row>
-    <row r="29" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="118"/>
     </row>
-    <row r="30" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="118"/>
     </row>
-    <row r="31" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="118"/>
     </row>
-    <row r="32" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="118"/>
     </row>
-    <row r="33" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="118"/>
     </row>
-    <row r="34" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="118"/>
     </row>
-    <row r="35" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="118"/>
     </row>
-    <row r="36" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="118"/>
     </row>
-    <row r="37" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="118"/>
     </row>
-    <row r="38" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="118"/>
     </row>
-    <row r="39" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="118"/>
     </row>
-    <row r="40" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="118"/>
     </row>
-    <row r="41" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="118"/>
     </row>
-    <row r="42" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="118"/>
     </row>
-    <row r="43" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="118"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -14548,865 +14557,865 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="119"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="119"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="119"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="119"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="119"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="119"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="119"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="119"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="119"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="119"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="119"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="119"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="119"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="119"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="119"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="119"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="119"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="119"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="119"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="119"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="119"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="119"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="119"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="119"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="119"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="119"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="119"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="119"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="119"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="119"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="119"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="119"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="119"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="119"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="119"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="119"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="119"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="119"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="119"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="119"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="119"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="119"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="119"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="119"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="119"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="119"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="119"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="119"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="119"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="119"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="119"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="119"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="119"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="119"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="119"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="119"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="119"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="119"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="119"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="119"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="119"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="119"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="119"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="119"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="119"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="119"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="119"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="119"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="119"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="119"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="119"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="119"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="119"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="119"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="119"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="119"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="119"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="119"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="119"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="119"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="119"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="119"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="119"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="119"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="119"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="119"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="119"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="119"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="119"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="119"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="119"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="119"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="119"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="119"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="119"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="119"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="119"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="119"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="119"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="119"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="119"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="119"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="119"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="119"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="119"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="119"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="119"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="119"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="119"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="119"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="119"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="119"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="119"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="119"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="119"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="119"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="119"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="119"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="119"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="119"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="119"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="119"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="119"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="119"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="119"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="119"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="119"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="119"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="119"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="119"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="119"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="119"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="119"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="119"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="119"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="119"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="119"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="119"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="119"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="119"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="119"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="119"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="119"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="119"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="119"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="119"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="119"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="119"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="119"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="119"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="119"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="119"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="119"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="119"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="119"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="119"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="119"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="119"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="119"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="119"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="119"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="119"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="119"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="119"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="119"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="119"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="119"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="119"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="119"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="119"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="119"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="119"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="119"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="119"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="119"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="119"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="119"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="119"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="119"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="119"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="119"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="119"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="119"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="119"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="119"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="119"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="119"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="119"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="119"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="119"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="119"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="119"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="119"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="119"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="119"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="119"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="119"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="119"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="119"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="119"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="119"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="119"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="119"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="119"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="119"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="119"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="119"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="119"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="119"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="119"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="119"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="119"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="119"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="119"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="119"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="119"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="119"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="119"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="119"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="119"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="119"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="119"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="119"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="119"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="119"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="119"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="119"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="119"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="119"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="119"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="119"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="119"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="119"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="119"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="119"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="119"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="119"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="119"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="119"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="119"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="119"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="119"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="119"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="119"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="119"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="119"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="119"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="119"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="119"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="119"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="119"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="119"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="119"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="119"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="119"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="119"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="119"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="119"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="119"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="119"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="119"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="119"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="119"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="119"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="119"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="119"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="119"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="119"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="119"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="119"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="119"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="119"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="119"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="119"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="119"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="119"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="119"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="119"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="119"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="119"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="119"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="119"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="119"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="119"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="119"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="119"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="119"/>
     </row>
   </sheetData>
